--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
@@ -19,7 +19,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -550,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:CI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:87">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -668,10 +818,160 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -686,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.05450982865424624</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1563144517545752</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2478311176875075</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -701,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06675748055457717</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0569921801149857</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -716,28 +1016,28 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.007657584637722158</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03116102428289033</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03939666829488105</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03596475444209879</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03775624467746688</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.1067970411194569</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02616988275925463</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.09906917379006581</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -746,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01030361104139364</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.003885165472771558</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -779,12 +1079,162 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01943379071610629</v>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0.1723214119879998</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0.2977373921743091</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0.07174824093711142</v>
+      </c>
+      <c r="BH2">
+        <v>0.003278347106327862</v>
+      </c>
+      <c r="BI2">
+        <v>0.01007857468962699</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0.05853776280206673</v>
+      </c>
+      <c r="BL2">
+        <v>0.01986317071735249</v>
+      </c>
+      <c r="BM2">
+        <v>0.06473798081101173</v>
+      </c>
+      <c r="BN2">
+        <v>0.002746693783117168</v>
+      </c>
+      <c r="BO2">
+        <v>0.04760150895157953</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0.1188387526728831</v>
+      </c>
+      <c r="BR2">
+        <v>0.014362005010892</v>
+      </c>
+      <c r="BS2">
+        <v>0.04781018350853749</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0.01033700892817558</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0.005234333871231698</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0.01788643794539929</v>
+      </c>
+      <c r="CC2">
+        <v>0.007258888913547185</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0.009868571321640941</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0.01975273386718977</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -802,25 +1252,25 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.003343278705746478</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1399353623404185</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0711741508608054</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2329218688868863</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02893196091764999</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -835,22 +1285,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.08727354110963743</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1860434874975374</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02037671443830526</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01812477024476222</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1192637352341775</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -868,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0122233021621444</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -883,21 +1333,171 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01065696724912368</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01870394739647138</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.05102691295633416</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0.2296836470166916</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0.1979058642969899</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0.05304815061128954</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0.01398086111325289</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0.06458462938265071</v>
+      </c>
+      <c r="BL3">
+        <v>0.04968221435299704</v>
+      </c>
+      <c r="BM3">
+        <v>0.0792154743290347</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.0433773966155587</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0.08410870297642213</v>
+      </c>
+      <c r="BR3">
+        <v>0.04335495129338941</v>
+      </c>
+      <c r="BS3">
+        <v>0.08071511741580628</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0.002664248608747369</v>
+      </c>
+      <c r="BV3">
+        <v>0.01985747938537596</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.01299431847020183</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0.02482694413159176</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:87">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -906,58 +1506,58 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2848535686402829</v>
+        <v>0.1138749373912031</v>
       </c>
       <c r="E4">
-        <v>0.1111326531420197</v>
+        <v>0.0267935134387909</v>
       </c>
       <c r="F4">
-        <v>0.03890634940337882</v>
+        <v>0.3404077648809604</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.04235397134702457</v>
       </c>
       <c r="H4">
-        <v>0.1509968043611965</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.06056823576690483</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04338015841422052</v>
       </c>
       <c r="K4">
-        <v>0.003937466853788869</v>
+        <v>0.001922397206837445</v>
       </c>
       <c r="L4">
-        <v>0.001409398796874491</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05095277088403372</v>
       </c>
       <c r="N4">
-        <v>0.1918678637820084</v>
+        <v>0.02026325375472402</v>
       </c>
       <c r="O4">
-        <v>0.03657774103771488</v>
+        <v>0.0719437834972325</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.009018435832450088</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.01531448292320568</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02471426667032641</v>
+        <v>0.04903690919531214</v>
       </c>
       <c r="T4">
-        <v>0.01949337936507862</v>
+        <v>0.001667808347386435</v>
       </c>
       <c r="U4">
-        <v>0.07348160636002976</v>
+        <v>0.06983013537312532</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -966,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.007764498544092086</v>
       </c>
       <c r="Y4">
-        <v>0.005329564916530762</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.03879320103006632</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -984,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.009023049557106293</v>
+        <v>0.01743609427331029</v>
       </c>
       <c r="AE4">
-        <v>0.001301992190057215</v>
+        <v>0.01484131699605823</v>
       </c>
       <c r="AF4">
-        <v>0.02202936818182381</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.006402135113651874</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.002531685683927224</v>
       </c>
       <c r="AI4">
-        <v>0.01854279162813063</v>
+        <v>0.001304645219134166</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1007,10 +1607,160 @@
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:87">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1019,25 +1769,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3086488216535676</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1091630792187044</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.07125084570136453</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.08915866038591584</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04355059393256044</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1049,25 +1799,25 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03470785599903846</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02162440409604045</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.08858310405681452</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03324894112349596</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002940488548320609</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.107252109850328</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1076,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.003581498214129987</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02635124546290152</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1097,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00826509214670431</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1112,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05167325961011354</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1120,10 +1870,160 @@
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.2145467030316226</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0.3104024534441656</v>
+      </c>
+      <c r="BG5">
+        <v>0.01709046184599059</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.09032230368052527</v>
+      </c>
+      <c r="BJ5">
+        <v>0.03022498086483045</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0.04999276456190098</v>
+      </c>
+      <c r="BN5">
+        <v>0.02380476976697626</v>
+      </c>
+      <c r="BO5">
+        <v>0.05240792263959081</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0.01858987114631425</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0.05866877355588045</v>
+      </c>
+      <c r="BT5">
+        <v>0.02633682455628826</v>
+      </c>
+      <c r="BU5">
+        <v>0.04581153379420684</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0.01313046678549028</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0.02695655073686338</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0.009041262600372763</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0.001416341191280384</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0.01125601579770082</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:87">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1132,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1666002112624654</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02151938067832306</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4593131135109963</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0107134115422798</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0435124696776102</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1162,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.006252853596018612</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04227963889809652</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.03187152123039663</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1180,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01549428514476634</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.04628686244428427</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1192,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07164495475147234</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03950624300914671</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1207,30 +2107,180 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.005269952522948645</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0282568471611194</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003241155302788825</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.005957981420148195</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002279117847138778</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.04195775259185967</v>
+      </c>
+      <c r="BC6">
+        <v>0.2289671316621588</v>
+      </c>
+      <c r="BD6">
+        <v>0.2669349853455623</v>
+      </c>
+      <c r="BE6">
+        <v>0.06025239536173688</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0.02913224156931832</v>
+      </c>
+      <c r="BH6">
+        <v>0.03361642351050104</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0.009798869595643325</v>
+      </c>
+      <c r="BK6">
+        <v>0.009547838596942821</v>
+      </c>
+      <c r="BL6">
+        <v>0.002671067402072439</v>
+      </c>
+      <c r="BM6">
+        <v>0.06900927341800701</v>
+      </c>
+      <c r="BN6">
+        <v>0.01027399096676209</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0.1493488915003102</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0.03518432085222672</v>
+      </c>
+      <c r="BW6">
+        <v>0.01002992111523541</v>
+      </c>
+      <c r="BX6">
+        <v>0.02849833474419252</v>
+      </c>
+      <c r="BY6">
+        <v>0.01136114581898356</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0.00286647288270721</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0.0005489430657796026</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
         <v>0</v>
       </c>
     </row>
@@ -1241,15 +2291,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:CI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:87">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1359,10 +2409,160 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1377,105 +2577,255 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.05450982865424624</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2108242804088215</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.458655398096329</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.458655398096329</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.458655398096329</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5254128786509061</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5254128786509061</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5824050587658919</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5824050587658919</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5824050587658919</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.590062643403614</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6212236676865044</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.6606203359813855</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.6965850904234843</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.7343413351009511</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.841138376220408</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.8673082589796626</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9663774327697284</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9663774327697284</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9663774327697284</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9766810438111221</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9766810438111221</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.9805662092838936</v>
+        <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0.1723214119879998</v>
+      </c>
+      <c r="BC2">
+        <v>0.1723214119879998</v>
+      </c>
+      <c r="BD2">
+        <v>0.4700588041623089</v>
+      </c>
+      <c r="BE2">
+        <v>0.4700588041623089</v>
+      </c>
+      <c r="BF2">
+        <v>0.4700588041623089</v>
+      </c>
+      <c r="BG2">
+        <v>0.5418070450994203</v>
+      </c>
+      <c r="BH2">
+        <v>0.5450853922057483</v>
+      </c>
+      <c r="BI2">
+        <v>0.5551639668953753</v>
+      </c>
+      <c r="BJ2">
+        <v>0.5551639668953753</v>
+      </c>
+      <c r="BK2">
+        <v>0.613701729697442</v>
+      </c>
+      <c r="BL2">
+        <v>0.6335649004147944</v>
+      </c>
+      <c r="BM2">
+        <v>0.6983028812258061</v>
+      </c>
+      <c r="BN2">
+        <v>0.7010495750089233</v>
+      </c>
+      <c r="BO2">
+        <v>0.7486510839605028</v>
+      </c>
+      <c r="BP2">
+        <v>0.7486510839605028</v>
+      </c>
+      <c r="BQ2">
+        <v>0.8674898366333859</v>
+      </c>
+      <c r="BR2">
+        <v>0.8818518416442779</v>
+      </c>
+      <c r="BS2">
+        <v>0.9296620251528154</v>
+      </c>
+      <c r="BT2">
+        <v>0.9296620251528154</v>
+      </c>
+      <c r="BU2">
+        <v>0.9296620251528154</v>
+      </c>
+      <c r="BV2">
+        <v>0.9399990340809909</v>
+      </c>
+      <c r="BW2">
+        <v>0.9399990340809909</v>
+      </c>
+      <c r="BX2">
+        <v>0.9452333679522227</v>
+      </c>
+      <c r="BY2">
+        <v>0.9452333679522227</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9452333679522227</v>
+      </c>
+      <c r="CA2">
+        <v>0.9452333679522227</v>
+      </c>
+      <c r="CB2">
+        <v>0.9631198058976219</v>
+      </c>
+      <c r="CC2">
+        <v>0.9703786948111691</v>
+      </c>
+      <c r="CD2">
+        <v>0.9703786948111691</v>
+      </c>
+      <c r="CE2">
+        <v>0.9802472661328101</v>
+      </c>
+      <c r="CF2">
+        <v>0.9802472661328101</v>
+      </c>
+      <c r="CG2">
         <v>0.9999999999999999</v>
       </c>
+      <c r="CH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1493,102 +2843,252 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.003343278705746478</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1432786410461649</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1432786410461649</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2144527919069704</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2144527919069704</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4473746607938566</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4763066217115066</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4763066217115066</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4763066217115066</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4763066217115066</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4763066217115066</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.5635801628211441</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.7496236503186815</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.7496236503186815</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.7700003647569867</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.788125135001749</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.9073888702359264</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.9196121723980708</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.9196121723980708</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9196121723980708</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9196121723980708</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.9196121723980708</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9302691396471945</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9489730870436659</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0.2296836470166916</v>
+      </c>
+      <c r="BC3">
+        <v>0.2296836470166916</v>
+      </c>
+      <c r="BD3">
+        <v>0.4275895113136815</v>
+      </c>
+      <c r="BE3">
+        <v>0.4275895113136815</v>
+      </c>
+      <c r="BF3">
+        <v>0.4275895113136815</v>
+      </c>
+      <c r="BG3">
+        <v>0.480637661924971</v>
+      </c>
+      <c r="BH3">
+        <v>0.480637661924971</v>
+      </c>
+      <c r="BI3">
+        <v>0.4946185230382239</v>
+      </c>
+      <c r="BJ3">
+        <v>0.4946185230382239</v>
+      </c>
+      <c r="BK3">
+        <v>0.5592031524208746</v>
+      </c>
+      <c r="BL3">
+        <v>0.6088853667738716</v>
+      </c>
+      <c r="BM3">
+        <v>0.6881008411029064</v>
+      </c>
+      <c r="BN3">
+        <v>0.6881008411029064</v>
+      </c>
+      <c r="BO3">
+        <v>0.7314782377184651</v>
+      </c>
+      <c r="BP3">
+        <v>0.7314782377184651</v>
+      </c>
+      <c r="BQ3">
+        <v>0.8155869406948872</v>
+      </c>
+      <c r="BR3">
+        <v>0.8589418919882766</v>
+      </c>
+      <c r="BS3">
+        <v>0.9396570094040829</v>
+      </c>
+      <c r="BT3">
+        <v>0.9396570094040829</v>
+      </c>
+      <c r="BU3">
+        <v>0.9423212580128303</v>
+      </c>
+      <c r="BV3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="BW3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="BX3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="BY3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="CA3">
+        <v>0.9621787373982063</v>
+      </c>
+      <c r="CB3">
+        <v>0.9751730558684081</v>
+      </c>
+      <c r="CC3">
+        <v>0.9751730558684081</v>
+      </c>
+      <c r="CD3">
+        <v>0.9751730558684081</v>
+      </c>
+      <c r="CE3">
+        <v>0.9751730558684081</v>
+      </c>
+      <c r="CF3">
+        <v>0.9751730558684081</v>
+      </c>
+      <c r="CG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:87">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1597,97 +3097,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2848535686402829</v>
+        <v>0.1138749373912031</v>
       </c>
       <c r="E4">
-        <v>0.3959862217823027</v>
+        <v>0.140668450829994</v>
       </c>
       <c r="F4">
-        <v>0.4348925711856815</v>
+        <v>0.4810762157109545</v>
       </c>
       <c r="G4">
-        <v>0.4348925711856815</v>
+        <v>0.5234301870579791</v>
       </c>
       <c r="H4">
-        <v>0.585889375546878</v>
+        <v>0.5234301870579791</v>
       </c>
       <c r="I4">
-        <v>0.585889375546878</v>
+        <v>0.5839984228248839</v>
       </c>
       <c r="J4">
-        <v>0.585889375546878</v>
+        <v>0.6273785812391044</v>
       </c>
       <c r="K4">
-        <v>0.5898268424006669</v>
+        <v>0.6293009784459418</v>
       </c>
       <c r="L4">
-        <v>0.5912362411975414</v>
+        <v>0.6293009784459418</v>
       </c>
       <c r="M4">
-        <v>0.5912362411975414</v>
+        <v>0.6802537493299755</v>
       </c>
       <c r="N4">
-        <v>0.7831041049795497</v>
+        <v>0.7005170030846996</v>
       </c>
       <c r="O4">
-        <v>0.8196818460172646</v>
+        <v>0.7724607865819321</v>
       </c>
       <c r="P4">
-        <v>0.8196818460172646</v>
+        <v>0.7814792224143822</v>
       </c>
       <c r="Q4">
-        <v>0.8196818460172646</v>
+        <v>0.7967937053375879</v>
       </c>
       <c r="R4">
-        <v>0.8196818460172646</v>
+        <v>0.7967937053375879</v>
       </c>
       <c r="S4">
-        <v>0.844396112687591</v>
+        <v>0.8458306145329</v>
       </c>
       <c r="T4">
-        <v>0.8638894920526696</v>
+        <v>0.8474984228802864</v>
       </c>
       <c r="U4">
-        <v>0.9373710984126994</v>
+        <v>0.9173285582534118</v>
       </c>
       <c r="V4">
-        <v>0.9373710984126994</v>
+        <v>0.9173285582534118</v>
       </c>
       <c r="W4">
-        <v>0.9373710984126994</v>
+        <v>0.9173285582534118</v>
       </c>
       <c r="X4">
-        <v>0.9373710984126994</v>
+        <v>0.9250930567975039</v>
       </c>
       <c r="Y4">
-        <v>0.9427006633292302</v>
+        <v>0.9250930567975039</v>
       </c>
       <c r="Z4">
-        <v>0.9427006633292302</v>
+        <v>0.9638862578275702</v>
       </c>
       <c r="AA4">
-        <v>0.9427006633292302</v>
+        <v>0.9638862578275702</v>
       </c>
       <c r="AB4">
-        <v>0.9427006633292302</v>
+        <v>0.9638862578275702</v>
       </c>
       <c r="AC4">
-        <v>0.9427006633292302</v>
+        <v>0.9638862578275702</v>
       </c>
       <c r="AD4">
-        <v>0.9517237128863365</v>
+        <v>0.9813223521008805</v>
       </c>
       <c r="AE4">
-        <v>0.9530257050763937</v>
+        <v>0.9961636690969388</v>
       </c>
       <c r="AF4">
-        <v>0.9750550732582175</v>
+        <v>0.9961636690969388</v>
       </c>
       <c r="AG4">
-        <v>0.9814572083718693</v>
+        <v>0.9961636690969388</v>
       </c>
       <c r="AH4">
-        <v>0.9814572083718693</v>
+        <v>0.998695354780866</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1698,10 +3198,160 @@
       <c r="AK4">
         <v>1</v>
       </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:87">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1710,111 +3360,261 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3086488216535676</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.417811900872272</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4890627465736365</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4890627465736365</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5782214069595524</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5782214069595524</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6217720008921128</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6217720008921128</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6217720008921128</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6217720008921128</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6564798568911513</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6781042609871918</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6781042609871918</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7666873650440063</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.7999363061675022</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8028767947158229</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.9101289045661509</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9101289045661509</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.9101289045661509</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.9137104027802809</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.9137104027802809</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.9400616482431825</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9400616482431825</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9400616482431825</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.9400616482431825</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.9400616482431825</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.9483267403898868</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.9483267403898868</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9483267403898868</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9483267403898868</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9483267403898868</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.2145467030316226</v>
+      </c>
+      <c r="BE5">
+        <v>0.2145467030316226</v>
+      </c>
+      <c r="BF5">
+        <v>0.5249491564757881</v>
+      </c>
+      <c r="BG5">
+        <v>0.5420396183217787</v>
+      </c>
+      <c r="BH5">
+        <v>0.5420396183217787</v>
+      </c>
+      <c r="BI5">
+        <v>0.632361922002304</v>
+      </c>
+      <c r="BJ5">
+        <v>0.6625869028671345</v>
+      </c>
+      <c r="BK5">
+        <v>0.6625869028671345</v>
+      </c>
+      <c r="BL5">
+        <v>0.6625869028671345</v>
+      </c>
+      <c r="BM5">
+        <v>0.7125796674290354</v>
+      </c>
+      <c r="BN5">
+        <v>0.7363844371960117</v>
+      </c>
+      <c r="BO5">
+        <v>0.7887923598356025</v>
+      </c>
+      <c r="BP5">
+        <v>0.7887923598356025</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8073822309819167</v>
+      </c>
+      <c r="BR5">
+        <v>0.8073822309819167</v>
+      </c>
+      <c r="BS5">
+        <v>0.8660510045377972</v>
+      </c>
+      <c r="BT5">
+        <v>0.8923878290940854</v>
+      </c>
+      <c r="BU5">
+        <v>0.9381993628882923</v>
+      </c>
+      <c r="BV5">
+        <v>0.9381993628882923</v>
+      </c>
+      <c r="BW5">
+        <v>0.9381993628882923</v>
+      </c>
+      <c r="BX5">
+        <v>0.9513298296737825</v>
+      </c>
+      <c r="BY5">
+        <v>0.9513298296737825</v>
+      </c>
+      <c r="BZ5">
+        <v>0.978286380410646</v>
+      </c>
+      <c r="CA5">
+        <v>0.978286380410646</v>
+      </c>
+      <c r="CB5">
+        <v>0.978286380410646</v>
+      </c>
+      <c r="CC5">
+        <v>0.978286380410646</v>
+      </c>
+      <c r="CD5">
+        <v>0.9873276430110187</v>
+      </c>
+      <c r="CE5">
+        <v>0.9873276430110187</v>
+      </c>
+      <c r="CF5">
+        <v>0.9873276430110187</v>
+      </c>
+      <c r="CG5">
+        <v>0.9887439842022991</v>
+      </c>
+      <c r="CH5">
+        <v>0.9887439842022991</v>
+      </c>
+      <c r="CI5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:87">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1823,106 +3623,256 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1666002112624654</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1881195919407885</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6474327054517848</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6474327054517848</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6581461169940646</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7016585866716748</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7016585866716748</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7016585866716748</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7016585866716748</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7016585866716748</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7079114402676934</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7501910791657899</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7820626003961865</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7820626003961865</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.7820626003961865</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.7820626003961865</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.7975568855409528</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.8438437479852371</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.8438437479852371</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.8438437479852371</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9154887027367095</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9154887027367095</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9549949457458562</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9549949457458562</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9549949457458562</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9602648982688048</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9885217454299242</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9885217454299242</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.991762900732713</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.991762900732713</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9977208821528611</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.04195775259185967</v>
+      </c>
+      <c r="BC6">
+        <v>0.2709248842540184</v>
+      </c>
+      <c r="BD6">
+        <v>0.5378598695995807</v>
+      </c>
+      <c r="BE6">
+        <v>0.5981122649613175</v>
+      </c>
+      <c r="BF6">
+        <v>0.5981122649613175</v>
+      </c>
+      <c r="BG6">
+        <v>0.6272445065306358</v>
+      </c>
+      <c r="BH6">
+        <v>0.6608609300411368</v>
+      </c>
+      <c r="BI6">
+        <v>0.6608609300411368</v>
+      </c>
+      <c r="BJ6">
+        <v>0.6706597996367801</v>
+      </c>
+      <c r="BK6">
+        <v>0.680207638233723</v>
+      </c>
+      <c r="BL6">
+        <v>0.6828787056357954</v>
+      </c>
+      <c r="BM6">
+        <v>0.7518879790538024</v>
+      </c>
+      <c r="BN6">
+        <v>0.7621619700205645</v>
+      </c>
+      <c r="BO6">
+        <v>0.7621619700205645</v>
+      </c>
+      <c r="BP6">
+        <v>0.7621619700205645</v>
+      </c>
+      <c r="BQ6">
+        <v>0.7621619700205645</v>
+      </c>
+      <c r="BR6">
+        <v>0.7621619700205645</v>
+      </c>
+      <c r="BS6">
+        <v>0.9115108615208747</v>
+      </c>
+      <c r="BT6">
+        <v>0.9115108615208747</v>
+      </c>
+      <c r="BU6">
+        <v>0.9115108615208747</v>
+      </c>
+      <c r="BV6">
+        <v>0.9466951823731014</v>
+      </c>
+      <c r="BW6">
+        <v>0.9567251034883367</v>
+      </c>
+      <c r="BX6">
+        <v>0.9852234382325292</v>
+      </c>
+      <c r="BY6">
+        <v>0.9965845840515127</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9965845840515127</v>
+      </c>
+      <c r="CA6">
+        <v>0.9965845840515127</v>
+      </c>
+      <c r="CB6">
+        <v>0.9965845840515127</v>
+      </c>
+      <c r="CC6">
+        <v>0.99945105693422</v>
+      </c>
+      <c r="CD6">
+        <v>0.99945105693422</v>
+      </c>
+      <c r="CE6">
+        <v>0.99945105693422</v>
+      </c>
+      <c r="CF6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CG6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CH6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CI6">
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1940,63 +3890,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5254128786509061</v>
+        <v>0.5418070450994203</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2008,39 +3958,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5635801628211441</v>
+        <v>0.5592031524208746</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2049,21 +3999,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2072,16 +4022,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.585889375546878</v>
+        <v>0.5234301870579791</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -2090,39 +4040,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5782214069595524</v>
+        <v>0.5249491564757881</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2131,39 +4081,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6474327054517848</v>
+        <v>0.5378598695995807</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2172,16 +4122,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2199,66 +4149,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7343413351009511</v>
+        <v>0.7010495750089233</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2267,39 +4217,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7496236503186815</v>
+        <v>0.7314782377184651</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2308,21 +4258,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2337,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7831041049795497</v>
+        <v>0.7005170030846996</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2349,39 +4299,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7666873650440063</v>
+        <v>0.7125796674290354</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2390,39 +4340,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7016585866716748</v>
+        <v>0.7518879790538024</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2431,16 +4381,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2458,63 +4408,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.841138376220408</v>
+        <v>0.8674898366333859</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2526,36 +4476,36 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9073888702359264</v>
+        <v>0.8155869406948872</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2567,21 +4517,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2590,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8196818460172646</v>
+        <v>0.8458306145329</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -2608,39 +4558,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028767947158229</v>
+        <v>0.8073822309819167</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2649,39 +4599,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8438437479852371</v>
+        <v>0.9115108615208747</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2690,16 +4640,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2717,63 +4667,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9663774327697284</v>
+        <v>0.9296620251528154</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -2785,39 +4735,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9073888702359264</v>
+        <v>0.9396570094040829</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2826,21 +4776,21 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2855,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9373710984126994</v>
+        <v>0.9173285582534118</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -2867,39 +4817,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D5">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9381993628882923</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9101289045661509</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2908,39 +4858,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9154887027367095</v>
+        <v>0.9115108615208747</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2949,16 +4899,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
